--- a/shortwave/shortwave_mls_H2O_total.xlsx
+++ b/shortwave/shortwave_mls_H2O_total.xlsx
@@ -580,13 +580,13 @@
         <v>0.00242</v>
       </c>
       <c r="D8">
-        <v>-0.000200762459982714</v>
+        <v>-0.0002</v>
       </c>
       <c r="E8">
-        <v>594.246284789999</v>
+        <v>592.7477</v>
       </c>
       <c r="F8">
-        <v>594.246084027539</v>
+        <v>592.7475</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -601,13 +601,13 @@
         <v>299.7</v>
       </c>
       <c r="D9">
-        <v>-9.90612865085755e-05</v>
+        <v>-0.0001</v>
       </c>
       <c r="E9">
-        <v>583.539690009943</v>
+        <v>582.0274</v>
       </c>
       <c r="F9">
-        <v>583.539590948657</v>
+        <v>582.0273</v>
       </c>
       <c r="G9">
         <v>1.01312</v>
@@ -625,10 +625,10 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>478.006790407102</v>
+        <v>477.3102</v>
       </c>
       <c r="F10">
-        <v>478.006790407102</v>
+        <v>477.3102</v>
       </c>
       <c r="G10">
         <v>1.22063</v>
@@ -645,13 +645,13 @@
         <v>0.002417</v>
       </c>
       <c r="D11">
-        <v>-0.000234161118222746</v>
+        <v>-0.00023281683255637</v>
       </c>
       <c r="E11">
-        <v>682.424679844197</v>
+        <v>684.071315</v>
       </c>
       <c r="F11">
-        <v>682.424445683079</v>
+        <v>684.071082183168</v>
       </c>
       <c r="G11">
         <v>1.135757313</v>
@@ -666,13 +666,13 @@
         <v>299.8</v>
       </c>
       <c r="D12">
-        <v>-8.8949537360921e-05</v>
+        <v>-8.84133663471399e-05</v>
       </c>
       <c r="E12">
-        <v>671.945614057449</v>
+        <v>673.559924</v>
       </c>
       <c r="F12">
-        <v>671.945525107912</v>
+        <v>673.559835586634</v>
       </c>
       <c r="G12">
         <v>0.9906915129044</v>
@@ -690,10 +690,10 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>569.833011135412</v>
+        <v>571.877265</v>
       </c>
       <c r="F13">
-        <v>569.833011135412</v>
+        <v>571.877265</v>
       </c>
       <c r="G13">
         <v>1.2003814184927</v>
@@ -775,13 +775,13 @@
         <v>-2.99999999999953e-06</v>
       </c>
       <c r="D17">
-        <v>0.000200762459982714</v>
+        <v>0.0002</v>
       </c>
       <c r="E17">
-        <v>35.0843673000021</v>
+        <v>36.5829520900008</v>
       </c>
       <c r="F17">
-        <v>35.0845680624622</v>
+        <v>36.5831520900009</v>
       </c>
       <c r="G17">
         <v>0.460771536331999</v>
@@ -796,13 +796,13 @@
         <v>0.100000000000023</v>
       </c>
       <c r="D18">
-        <v>9.90612865085755e-05</v>
+        <v>0.0001</v>
       </c>
       <c r="E18">
-        <v>36.5210516605756</v>
+        <v>38.0333416705188</v>
       </c>
       <c r="F18">
-        <v>36.5211507218621</v>
+        <v>38.0334416705188</v>
       </c>
       <c r="G18">
         <v>-0.0235178996928964</v>
@@ -820,10 +820,10 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>37.3788386890897</v>
+        <v>38.0754290961918</v>
       </c>
       <c r="F19">
-        <v>37.3788386890897</v>
+        <v>38.0754290961918</v>
       </c>
       <c r="G19">
         <v>0.00161201625220064</v>
@@ -840,13 +840,13 @@
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.000234161118222746</v>
+        <v>0.00023281683255637</v>
       </c>
       <c r="E20">
-        <v>-53.0940277541964</v>
+        <v>-54.7406629099992</v>
       </c>
       <c r="F20">
-        <v>-53.0937935930782</v>
+        <v>-54.7404300931668</v>
       </c>
       <c r="G20">
         <v>-0.674985776668001</v>
@@ -861,13 +861,13 @@
         <v>0</v>
       </c>
       <c r="D21">
-        <v>8.8949537360921e-05</v>
+        <v>8.84133663471399e-05</v>
       </c>
       <c r="E21">
-        <v>-51.8848723869306</v>
+        <v>-53.4991823294813</v>
       </c>
       <c r="F21">
-        <v>-51.8847834373933</v>
+        <v>-53.4990939161149</v>
       </c>
       <c r="G21">
         <v>-0.00108941259729634</v>
@@ -885,10 +885,10 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>-54.4473820392203</v>
+        <v>-56.4916359038082</v>
       </c>
       <c r="F22">
-        <v>-54.4473820392203</v>
+        <v>-56.4916359038082</v>
       </c>
       <c r="G22">
         <v>0.0218605977595006</v>
@@ -905,13 +905,13 @@
         <v>-2.99999999999953e-06</v>
       </c>
       <c r="D23">
-        <v>0.000200762459982714</v>
+        <v>0.0002</v>
       </c>
       <c r="E23">
-        <v>35.084366905002</v>
+        <v>36.5829516950007</v>
       </c>
       <c r="F23">
-        <v>35.084567667462</v>
+        <v>36.5831516950008</v>
       </c>
       <c r="G23">
         <v>0.461621190159999</v>
@@ -926,13 +926,13 @@
         <v>0.100000000000023</v>
       </c>
       <c r="D24">
-        <v>9.90612865085755e-05</v>
+        <v>0.0001</v>
       </c>
       <c r="E24">
-        <v>36.4534406518015</v>
+        <v>37.9657306617447</v>
       </c>
       <c r="F24">
-        <v>36.453539713088</v>
+        <v>37.9658306617447</v>
       </c>
       <c r="G24">
         <v>-0.016104262740674</v>
@@ -950,10 +950,10 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>36.8314291617684</v>
+        <v>37.5280195688705</v>
       </c>
       <c r="F25">
-        <v>36.8314291617684</v>
+        <v>37.5280195688705</v>
       </c>
       <c r="G25">
         <v>-0.0016662275541024</v>
@@ -970,13 +970,13 @@
         <v>0</v>
       </c>
       <c r="D26">
-        <v>0.000234161118222746</v>
+        <v>0.00023281683255637</v>
       </c>
       <c r="E26">
-        <v>-53.0940281491966</v>
+        <v>-54.7406633049993</v>
       </c>
       <c r="F26">
-        <v>-53.0937939880783</v>
+        <v>-54.7404304881669</v>
       </c>
       <c r="G26">
         <v>-0.674136122840001</v>
@@ -991,13 +991,13 @@
         <v>0</v>
       </c>
       <c r="D27">
-        <v>8.8949537360921e-05</v>
+        <v>8.84133663471399e-05</v>
       </c>
       <c r="E27">
-        <v>-51.9524833957047</v>
+        <v>-53.5667933382554</v>
       </c>
       <c r="F27">
-        <v>-51.9523944461673</v>
+        <v>-53.566704924889</v>
       </c>
       <c r="G27">
         <v>0.00632422435492608</v>
@@ -1015,10 +1015,10 @@
         <v>0</v>
       </c>
       <c r="E28">
-        <v>-54.9947915665416</v>
+        <v>-57.0390454311295</v>
       </c>
       <c r="F28">
-        <v>-54.9947915665416</v>
+        <v>-57.0390454311295</v>
       </c>
       <c r="G28">
         <v>0.0185823539531975</v>
@@ -1035,13 +1035,13 @@
         <v>2.99999999999953e-06</v>
       </c>
       <c r="D29">
-        <v>3.3398658240032e-05</v>
+        <v>3.28168325563703e-05</v>
       </c>
       <c r="E29">
-        <v>-88.1783950541985</v>
+        <v>-91.323615</v>
       </c>
       <c r="F29">
-        <v>-88.1783616555404</v>
+        <v>-91.3235821831677</v>
       </c>
       <c r="G29">
         <v>-1.135757313</v>
@@ -1056,13 +1056,13 @@
         <v>-0.100000000000023</v>
       </c>
       <c r="D30">
-        <v>-1.01117491476544e-05</v>
+        <v>-1.15866336528601e-05</v>
       </c>
       <c r="E30">
-        <v>-88.4059240475062</v>
+        <v>-91.5325240000001</v>
       </c>
       <c r="F30">
-        <v>-88.4059341592554</v>
+        <v>-91.5325355866337</v>
       </c>
       <c r="G30">
         <v>0.0224284870956001</v>
@@ -1080,10 +1080,10 @@
         <v>0</v>
       </c>
       <c r="E31">
-        <v>-91.82622072831</v>
+        <v>-94.567065</v>
       </c>
       <c r="F31">
-        <v>-91.82622072831</v>
+        <v>-94.567065</v>
       </c>
       <c r="G31">
         <v>0.0202485815072999</v>
